--- a/Data/20210730BioplasticCMechanicalTest.xlsx
+++ b/Data/20210730BioplasticCMechanicalTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\OneDrive - The Pennsylvania State University\Documents\research\Bioplastics\Mechanical testing\20210730\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57629404-E735-4293-8AE1-152067983995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5BEB7C-FCCA-4CE8-9A7F-0505D0B782AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57270" yWindow="6510" windowWidth="19530" windowHeight="14880" xr2:uid="{ECFF3E30-6E5D-4383-92EC-5369F7070C6B}"/>
+    <workbookView xWindow="54720" yWindow="6195" windowWidth="19530" windowHeight="14880" xr2:uid="{ECFF3E30-6E5D-4383-92EC-5369F7070C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="FilmSize" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:CS530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
